--- a/2018年01月第1周技术中心周简报-芶凌.xlsx
+++ b/2018年01月第1周技术中心周简报-芶凌.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>本周重点工作完成情况</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>债权匹配上线数据观察</t>
+  </si>
+  <si>
+    <t>python的mysql数据库binlog同步</t>
   </si>
   <si>
     <t>geode集群及常用场景</t>
@@ -91,10 +94,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -153,9 +156,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,19 +187,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,72 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -266,7 +247,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,22 +268,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,37 +326,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,145 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,6 +676,89 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -690,246 +776,163 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,7 +1087,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1096,7 +1099,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1490,10 +1493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1648,192 +1651,209 @@
       <c r="J7" s="50"/>
       <c r="K7" s="52"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
+    <row r="8" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A8" s="7"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="49">
         <v>43105</v>
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="52"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
+    <row r="9" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
-    </row>
-    <row r="10" ht="24.95" customHeight="1" spans="1:11">
+      <c r="F9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="49">
+        <v>43105</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A10" s="7"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
-    </row>
-    <row r="11" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+    </row>
+    <row r="11" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" ht="42.75" customHeight="1" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="6" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="37" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="25" t="s">
+      <c r="I12" s="58"/>
+      <c r="J12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="59"/>
-    </row>
-    <row r="12" ht="24.95" customHeight="1" spans="1:11">
-      <c r="A12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="K12" s="60"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:11">
       <c r="A13" s="7"/>
       <c r="C13" s="10"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="63"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A14" s="19"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="K13" s="60"/>
+    </row>
+    <row r="14" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="62"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="15" ht="20.1" customHeight="1" spans="1:11">
+      <c r="A15" s="19"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+    </row>
+    <row r="16" ht="42.75" customHeight="1" spans="1:11">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="37" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="25" t="s">
+      <c r="I16" s="58"/>
+      <c r="J16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="59"/>
-    </row>
-    <row r="16" ht="24.95" customHeight="1" spans="1:12">
-      <c r="A16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="65"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" ht="24.95" customHeight="1" spans="1:12">
       <c r="A17" s="7"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="44"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="66"/>
+      <c r="H17" s="45"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="64"/>
       <c r="L17" s="65"/>
     </row>
     <row r="18" ht="24.95" customHeight="1" spans="1:12">
       <c r="A18" s="7"/>
       <c r="C18" s="10"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="61"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="J18" s="54"/>
       <c r="K18" s="66"/>
       <c r="L18" s="65"/>
     </row>
-    <row r="19" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="67"/>
+    <row r="19" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="65"/>
+    </row>
+    <row r="20" ht="42.75" customHeight="1" spans="1:11">
+      <c r="A20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="J2:J10"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K2:K9"/>
+    <mergeCell ref="K17:K19"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
